--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H2">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I2">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J2">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N2">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O2">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P2">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q2">
-        <v>804.0323931676148</v>
+        <v>2083.449371362456</v>
       </c>
       <c r="R2">
-        <v>3216.129572670459</v>
+        <v>8333.797485449822</v>
       </c>
       <c r="S2">
-        <v>0.1764484122457633</v>
+        <v>0.6045389964918382</v>
       </c>
       <c r="T2">
-        <v>0.1156895295431396</v>
+        <v>0.5485213047500437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H3">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I3">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J3">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P3">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q3">
-        <v>32.107494241957</v>
+        <v>87.450232077046</v>
       </c>
       <c r="R3">
-        <v>192.644965451742</v>
+        <v>524.701392462276</v>
       </c>
       <c r="S3">
-        <v>0.007046129519563106</v>
+        <v>0.0253747829294569</v>
       </c>
       <c r="T3">
-        <v>0.006929759799279719</v>
+        <v>0.03453526353382916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H4">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I4">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J4">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N4">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O4">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P4">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q4">
-        <v>24.04635880631626</v>
+        <v>2.303248416491</v>
       </c>
       <c r="R4">
-        <v>96.18543522526502</v>
+        <v>13.819490498946</v>
       </c>
       <c r="S4">
-        <v>0.005277078221874469</v>
+        <v>0.0006683164494015677</v>
       </c>
       <c r="T4">
-        <v>0.00345995007311642</v>
+        <v>0.0009095835329208918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H5">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I5">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J5">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N5">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O5">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P5">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q5">
-        <v>507.1084534639451</v>
+        <v>16.6182682876155</v>
       </c>
       <c r="R5">
-        <v>3042.65072078367</v>
+        <v>66.473073150462</v>
       </c>
       <c r="S5">
-        <v>0.11128715983395</v>
+        <v>0.004821999215396078</v>
       </c>
       <c r="T5">
-        <v>0.1094492067243664</v>
+        <v>0.004375183927722773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H6">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I6">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J6">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N6">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O6">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P6">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q6">
-        <v>1.2165579487055</v>
+        <v>6.799216513367999</v>
       </c>
       <c r="R6">
-        <v>7.299347692233002</v>
+        <v>40.795299080208</v>
       </c>
       <c r="S6">
-        <v>0.0002669789429855703</v>
+        <v>0.001972878047540107</v>
       </c>
       <c r="T6">
-        <v>0.000262569676191577</v>
+        <v>0.002685101326041658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.026576</v>
       </c>
       <c r="I7">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J7">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N7">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O7">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P7">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q7">
-        <v>94.27223006178401</v>
+        <v>89.68888664744001</v>
       </c>
       <c r="R7">
-        <v>565.6333803707041</v>
+        <v>538.1333198846402</v>
       </c>
       <c r="S7">
-        <v>0.0206884516775948</v>
+        <v>0.02602435666332347</v>
       </c>
       <c r="T7">
-        <v>0.0203467734089604</v>
+        <v>0.03541933809502248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.026576</v>
       </c>
       <c r="I8">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J8">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P8">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q8">
         <v>3.764581016394667</v>
@@ -951,10 +951,10 @@
         <v>33.881229147552</v>
       </c>
       <c r="S8">
-        <v>0.000826153708181388</v>
+        <v>0.001092340452878483</v>
       </c>
       <c r="T8">
-        <v>0.001218764161037498</v>
+        <v>0.002230024913732029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>4.026576</v>
       </c>
       <c r="I9">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J9">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N9">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O9">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P9">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q9">
-        <v>2.81941858164</v>
+        <v>0.09915085482133333</v>
       </c>
       <c r="R9">
-        <v>16.91651148984</v>
+        <v>0.8923576933920001</v>
       </c>
       <c r="S9">
-        <v>0.0006187336933362472</v>
+        <v>2.876986554072064E-05</v>
       </c>
       <c r="T9">
-        <v>0.0006085150525032144</v>
+        <v>5.873399337309426E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>4.026576</v>
       </c>
       <c r="I10">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J10">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N10">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O10">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P10">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q10">
-        <v>59.45810790394668</v>
+        <v>0.715387664904</v>
       </c>
       <c r="R10">
-        <v>535.1229711355201</v>
+        <v>4.292325989424</v>
       </c>
       <c r="S10">
-        <v>0.01304834086778089</v>
+        <v>0.0002075787139290487</v>
       </c>
       <c r="T10">
-        <v>0.01924926324625379</v>
+        <v>0.000282516134600347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>4.026576</v>
       </c>
       <c r="I11">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J11">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N11">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O11">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P11">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q11">
-        <v>0.1426405600053333</v>
+        <v>0.292694493824</v>
       </c>
       <c r="R11">
-        <v>1.283765040048</v>
+        <v>2.634250444416</v>
       </c>
       <c r="S11">
-        <v>3.130309244834211E-05</v>
+        <v>8.492898267997533E-05</v>
       </c>
       <c r="T11">
-        <v>4.617916354774328E-05</v>
+        <v>0.0001733834417421598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H12">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I12">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J12">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N12">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O12">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P12">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q12">
-        <v>178.0230677515067</v>
+        <v>88.10247131967667</v>
       </c>
       <c r="R12">
-        <v>1068.13840650904</v>
+        <v>528.6148279180601</v>
       </c>
       <c r="S12">
-        <v>0.0390679379522523</v>
+        <v>0.02556403833572323</v>
       </c>
       <c r="T12">
-        <v>0.03842271492606043</v>
+        <v>0.03479284151385682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H13">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I13">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J13">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O13">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P13">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q13">
-        <v>7.109010372391111</v>
+        <v>3.697993178700888</v>
       </c>
       <c r="R13">
-        <v>63.98109335151999</v>
+        <v>33.281938608308</v>
       </c>
       <c r="S13">
-        <v>0.001560103303680673</v>
+        <v>0.001073019155643584</v>
       </c>
       <c r="T13">
-        <v>0.002301506336185008</v>
+        <v>0.00219058027530826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H14">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I14">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J14">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N14">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O14">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P14">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q14">
-        <v>5.324171761400001</v>
+        <v>0.09739707637977776</v>
       </c>
       <c r="R14">
-        <v>31.9450305684</v>
+        <v>0.876573687418</v>
       </c>
       <c r="S14">
-        <v>0.001168412693077797</v>
+        <v>2.826098470411375E-05</v>
       </c>
       <c r="T14">
-        <v>0.001149115878011949</v>
+        <v>5.769510761109236E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H15">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I15">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J15">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N15">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O15">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P15">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q15">
-        <v>112.2803052905778</v>
+        <v>0.7027339014409999</v>
       </c>
       <c r="R15">
-        <v>1010.5227476152</v>
+        <v>4.216403408645999</v>
       </c>
       <c r="S15">
-        <v>0.02464040225660651</v>
+        <v>0.0002039070655698833</v>
       </c>
       <c r="T15">
-        <v>0.03635018385380897</v>
+        <v>0.0002775189945641211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H16">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I16">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J16">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N16">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O16">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P16">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q16">
-        <v>0.2693615082755556</v>
+        <v>0.2875173191626666</v>
       </c>
       <c r="R16">
-        <v>2.42425357448</v>
+        <v>2.587655872464</v>
       </c>
       <c r="S16">
-        <v>5.91125567318252E-05</v>
+        <v>8.342676044340677E-05</v>
       </c>
       <c r="T16">
-        <v>8.720443290224461E-05</v>
+        <v>0.0001703166387095683</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.804552</v>
+        <v>10.0659815</v>
       </c>
       <c r="H17">
-        <v>11.609104</v>
+        <v>20.131963</v>
       </c>
       <c r="I17">
-        <v>0.1522849123873311</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J17">
-        <v>0.119561553204878</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N17">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O17">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P17">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q17">
-        <v>407.697305266004</v>
+        <v>672.6360116501426</v>
       </c>
       <c r="R17">
-        <v>1630.789221064016</v>
+        <v>2690.54404660057</v>
       </c>
       <c r="S17">
-        <v>0.08947095017857823</v>
+        <v>0.1951737849148376</v>
       </c>
       <c r="T17">
-        <v>0.05866220048225981</v>
+        <v>0.1770886241842903</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.804552</v>
+        <v>10.0659815</v>
       </c>
       <c r="H18">
-        <v>11.609104</v>
+        <v>20.131963</v>
       </c>
       <c r="I18">
-        <v>0.1522849123873311</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J18">
-        <v>0.119561553204878</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O18">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P18">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q18">
-        <v>16.28061131930133</v>
+        <v>28.23307162185433</v>
       </c>
       <c r="R18">
-        <v>97.68366791580799</v>
+        <v>169.398429731126</v>
       </c>
       <c r="S18">
-        <v>0.003572851096662543</v>
+        <v>0.008192180247219797</v>
       </c>
       <c r="T18">
-        <v>0.003513843994738224</v>
+        <v>0.01114961670966384</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.804552</v>
+        <v>10.0659815</v>
       </c>
       <c r="H19">
-        <v>11.609104</v>
+        <v>20.131963</v>
       </c>
       <c r="I19">
-        <v>0.1522849123873311</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J19">
-        <v>0.119561553204878</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N19">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O19">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P19">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q19">
-        <v>12.19308546534</v>
+        <v>0.7435975406951666</v>
       </c>
       <c r="R19">
-        <v>48.77234186136</v>
+        <v>4.461585244171</v>
       </c>
       <c r="S19">
-        <v>0.00267582573664744</v>
+        <v>0.0002157641636147298</v>
       </c>
       <c r="T19">
-        <v>0.001754422251082626</v>
+        <v>0.0002936565909669602</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.804552</v>
+        <v>10.0659815</v>
       </c>
       <c r="H20">
-        <v>11.609104</v>
+        <v>20.131963</v>
       </c>
       <c r="I20">
-        <v>0.1522849123873311</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J20">
-        <v>0.119561553204878</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N20">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O20">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P20">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q20">
-        <v>257.1373388830133</v>
+        <v>5.365163106509249</v>
       </c>
       <c r="R20">
-        <v>1542.82403329808</v>
+        <v>21.460652426037</v>
       </c>
       <c r="S20">
-        <v>0.05642990949190525</v>
+        <v>0.001556769444463681</v>
       </c>
       <c r="T20">
-        <v>0.0554979463815256</v>
+        <v>0.00141251633364854</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.804552</v>
+        <v>10.0659815</v>
       </c>
       <c r="H21">
-        <v>11.609104</v>
+        <v>20.131963</v>
       </c>
       <c r="I21">
-        <v>0.1522849123873311</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J21">
-        <v>0.119561553204878</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N21">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O21">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P21">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q21">
-        <v>0.6168748940986668</v>
+        <v>2.195108717668</v>
       </c>
       <c r="R21">
-        <v>3.701249364592</v>
+        <v>13.170652306008</v>
       </c>
       <c r="S21">
-        <v>0.0001353758835376824</v>
+        <v>0.0006369383579029319</v>
       </c>
       <c r="T21">
-        <v>0.000133140095271705</v>
+        <v>0.000866877722900503</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.916697</v>
+        <v>1.988592</v>
       </c>
       <c r="H22">
-        <v>44.750091</v>
+        <v>5.965776</v>
       </c>
       <c r="I22">
-        <v>0.3913459463802487</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J22">
-        <v>0.460878840091331</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N22">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O22">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P22">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q22">
-        <v>1047.711721829607</v>
+        <v>132.88307669544</v>
       </c>
       <c r="R22">
-        <v>6286.27033097764</v>
+        <v>797.2984601726401</v>
       </c>
       <c r="S22">
-        <v>0.2299249027514866</v>
+        <v>0.03855769328518702</v>
       </c>
       <c r="T22">
-        <v>0.2261275986364986</v>
+        <v>0.05247730010390238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.916697</v>
+        <v>1.988592</v>
       </c>
       <c r="H23">
-        <v>44.750091</v>
+        <v>5.965776</v>
       </c>
       <c r="I23">
-        <v>0.3913459463802487</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J23">
-        <v>0.460878840091331</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O23">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P23">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q23">
-        <v>41.83836169006467</v>
+        <v>5.577604167327999</v>
       </c>
       <c r="R23">
-        <v>376.545255210582</v>
+        <v>50.19843750595199</v>
       </c>
       <c r="S23">
-        <v>0.009181610783232343</v>
+        <v>0.001618411885833419</v>
       </c>
       <c r="T23">
-        <v>0.01354495907042775</v>
+        <v>0.003304005465125855</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.916697</v>
+        <v>1.988592</v>
       </c>
       <c r="H24">
-        <v>44.750091</v>
+        <v>5.965776</v>
       </c>
       <c r="I24">
-        <v>0.3913459463802487</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J24">
-        <v>0.460878840091331</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N24">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O24">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P24">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q24">
-        <v>31.3341255934275</v>
+        <v>0.146901931088</v>
       </c>
       <c r="R24">
-        <v>188.004753560565</v>
+        <v>1.322117379792</v>
       </c>
       <c r="S24">
-        <v>0.006876410399695215</v>
+        <v>4.262543991869473E-05</v>
       </c>
       <c r="T24">
-        <v>0.006762843660318003</v>
+        <v>8.702029914482297E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.916697</v>
+        <v>1.988592</v>
       </c>
       <c r="H25">
-        <v>44.750091</v>
+        <v>5.965776</v>
       </c>
       <c r="I25">
-        <v>0.3913459463802487</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J25">
-        <v>0.460878840091331</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N25">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O25">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P25">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q25">
-        <v>660.7985890218968</v>
+        <v>1.059918541704</v>
       </c>
       <c r="R25">
-        <v>5947.187301197071</v>
+        <v>6.359511250223999</v>
       </c>
       <c r="S25">
-        <v>0.1450151297857569</v>
+        <v>0.000307548674026961</v>
       </c>
       <c r="T25">
-        <v>0.2139302181190203</v>
+        <v>0.000418575975074485</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.916697</v>
+        <v>1.988592</v>
       </c>
       <c r="H26">
-        <v>44.750091</v>
+        <v>5.965776</v>
       </c>
       <c r="I26">
-        <v>0.3913459463802487</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J26">
-        <v>0.460878840091331</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N26">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O26">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P26">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q26">
-        <v>1.585262029210334</v>
+        <v>0.4336562346239999</v>
       </c>
       <c r="R26">
-        <v>14.267358262893</v>
+        <v>3.902906111615999</v>
       </c>
       <c r="S26">
-        <v>0.0003478926600776248</v>
+        <v>0.0001258308017970137</v>
       </c>
       <c r="T26">
-        <v>0.0005132206050662883</v>
+        <v>0.0002568849502760596</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.071032666666667</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H27">
-        <v>6.213098</v>
+        <v>9.069982</v>
       </c>
       <c r="I27">
-        <v>0.05433443066659307</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J27">
-        <v>0.06398837042842591</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N27">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O27">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P27">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q27">
-        <v>145.4641869549737</v>
+        <v>202.0268802804967</v>
       </c>
       <c r="R27">
-        <v>872.7851217298421</v>
+        <v>1212.16128168298</v>
       </c>
       <c r="S27">
-        <v>0.03192274968637396</v>
+        <v>0.05862063611811224</v>
       </c>
       <c r="T27">
-        <v>0.03139553237630806</v>
+        <v>0.07978311075558195</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.071032666666667</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H28">
-        <v>6.213098</v>
+        <v>9.069982</v>
       </c>
       <c r="I28">
-        <v>0.05433443066659307</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J28">
-        <v>0.06398837042842591</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O28">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P28">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q28">
-        <v>5.808833804155111</v>
+        <v>8.479830520084887</v>
       </c>
       <c r="R28">
-        <v>52.279504237396</v>
+        <v>76.31847468076398</v>
       </c>
       <c r="S28">
-        <v>0.001274773890271627</v>
+        <v>0.002460529304669697</v>
       </c>
       <c r="T28">
-        <v>0.001880580714585731</v>
+        <v>0.005023197333690224</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.071032666666667</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H29">
-        <v>6.213098</v>
+        <v>9.069982</v>
       </c>
       <c r="I29">
-        <v>0.05433443066659307</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J29">
-        <v>0.06398837042842591</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N29">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O29">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P29">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q29">
-        <v>4.350426752345001</v>
+        <v>0.2233402445437777</v>
       </c>
       <c r="R29">
-        <v>26.10256051407</v>
+        <v>2.010062200894</v>
       </c>
       <c r="S29">
-        <v>0.0009547201077540946</v>
+        <v>6.480497638607999E-05</v>
       </c>
       <c r="T29">
-        <v>0.00093895251342024</v>
+        <v>0.000132300064045006</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.071032666666667</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H30">
-        <v>6.213098</v>
+        <v>9.069982</v>
       </c>
       <c r="I30">
-        <v>0.05433443066659307</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J30">
-        <v>0.06398837042842591</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N30">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O30">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P30">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q30">
-        <v>91.7452076657178</v>
+        <v>1.611431957003</v>
       </c>
       <c r="R30">
-        <v>825.7068689914602</v>
+        <v>9.668591742017998</v>
       </c>
       <c r="S30">
-        <v>0.02013388560129691</v>
+        <v>0.0004675772167021363</v>
       </c>
       <c r="T30">
-        <v>0.02970204932845497</v>
+        <v>0.0006363759818602018</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.071032666666667</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H31">
-        <v>6.213098</v>
+        <v>9.069982</v>
       </c>
       <c r="I31">
-        <v>0.05433443066659307</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J31">
-        <v>0.06398837042842591</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N31">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O31">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P31">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q31">
-        <v>0.2200976159615556</v>
+        <v>0.6593030382346665</v>
       </c>
       <c r="R31">
-        <v>1.980878543654</v>
+        <v>5.933727344111999</v>
       </c>
       <c r="S31">
-        <v>4.830138089647618E-05</v>
+        <v>0.0001913050552592793</v>
       </c>
       <c r="T31">
-        <v>7.125549565689477E-05</v>
+        <v>0.0003905513507504732</v>
       </c>
     </row>
   </sheetData>
